--- a/DBScript/Resources.xlsx
+++ b/DBScript/Resources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="226">
   <si>
     <t>resource_id</t>
   </si>
@@ -631,6 +631,69 @@
   </si>
   <si>
     <t>New Password</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Responded</t>
+  </si>
+  <si>
+    <t>Responded On</t>
+  </si>
+  <si>
+    <t>Invitation Codes</t>
+  </si>
+  <si>
+    <t>Invitation Code</t>
+  </si>
+  <si>
+    <t>Invitation Code For</t>
+  </si>
+  <si>
+    <t>Enter Invitation Code</t>
+  </si>
+  <si>
+    <t>Invitation Code Status</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Transacation Amount</t>
+  </si>
+  <si>
+    <t>Payment Type</t>
+  </si>
+  <si>
+    <t>Transacation Date</t>
+  </si>
+  <si>
+    <t>Transacation Type</t>
+  </si>
+  <si>
+    <t>Total Credit Amount</t>
+  </si>
+  <si>
+    <t>Total Debit Amount</t>
+  </si>
+  <si>
+    <t>Balance Amount</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Activation Status</t>
   </si>
 </sst>
 </file>
@@ -646,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,11 +756,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +1064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7483,6 +7555,741 @@
         <v>44622.528148148151</v>
       </c>
       <c r="K185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" s="4">
+        <v>2184</v>
+      </c>
+      <c r="B186" s="4">
+        <v>1184</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1</v>
+      </c>
+      <c r="H186" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I186" s="4">
+        <v>0</v>
+      </c>
+      <c r="J186" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" s="4">
+        <v>2185</v>
+      </c>
+      <c r="B187" s="4">
+        <v>1185</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="4">
+        <v>1</v>
+      </c>
+      <c r="H187" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I187" s="4">
+        <v>0</v>
+      </c>
+      <c r="J187" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" s="4">
+        <v>2186</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1186</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="4">
+        <v>1</v>
+      </c>
+      <c r="H188" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I188" s="4">
+        <v>0</v>
+      </c>
+      <c r="J188" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" s="4">
+        <v>2187</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1187</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="4">
+        <v>1</v>
+      </c>
+      <c r="H189" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I189" s="4">
+        <v>0</v>
+      </c>
+      <c r="J189" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" s="4">
+        <v>2188</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1188</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="4">
+        <v>1</v>
+      </c>
+      <c r="H190" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I190" s="4">
+        <v>0</v>
+      </c>
+      <c r="J190" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" s="4">
+        <v>2189</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1189</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1</v>
+      </c>
+      <c r="H191" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I191" s="4">
+        <v>0</v>
+      </c>
+      <c r="J191" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" s="4">
+        <v>2190</v>
+      </c>
+      <c r="B192" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1</v>
+      </c>
+      <c r="H192" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I192" s="4">
+        <v>0</v>
+      </c>
+      <c r="J192" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" s="4">
+        <v>2191</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1191</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1</v>
+      </c>
+      <c r="H193" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I193" s="4">
+        <v>0</v>
+      </c>
+      <c r="J193" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" s="4">
+        <v>2192</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1192</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="4">
+        <v>1</v>
+      </c>
+      <c r="H194" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I194" s="4">
+        <v>0</v>
+      </c>
+      <c r="J194" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A195" s="4">
+        <v>2193</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1193</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1</v>
+      </c>
+      <c r="H195" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I195" s="4">
+        <v>0</v>
+      </c>
+      <c r="J195" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A196" s="4">
+        <v>2194</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1194</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1</v>
+      </c>
+      <c r="H196" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I196" s="4">
+        <v>0</v>
+      </c>
+      <c r="J196" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197" s="4">
+        <v>2195</v>
+      </c>
+      <c r="B197" s="4">
+        <v>1195</v>
+      </c>
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1</v>
+      </c>
+      <c r="H197" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I197" s="4">
+        <v>0</v>
+      </c>
+      <c r="J197" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198" s="4">
+        <v>2196</v>
+      </c>
+      <c r="B198" s="4">
+        <v>1196</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1</v>
+      </c>
+      <c r="H198" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I198" s="4">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" s="4">
+        <v>2197</v>
+      </c>
+      <c r="B199" s="4">
+        <v>1197</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="4">
+        <v>1</v>
+      </c>
+      <c r="H199" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I199" s="4">
+        <v>0</v>
+      </c>
+      <c r="J199" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" s="4">
+        <v>2198</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1198</v>
+      </c>
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="4">
+        <v>1</v>
+      </c>
+      <c r="H200" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I200" s="4">
+        <v>0</v>
+      </c>
+      <c r="J200" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" s="4">
+        <v>2199</v>
+      </c>
+      <c r="B201" s="4">
+        <v>1199</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+      <c r="H201" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I201" s="4">
+        <v>0</v>
+      </c>
+      <c r="J201" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" s="4">
+        <v>2200</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="4">
+        <v>1</v>
+      </c>
+      <c r="H202" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I202" s="4">
+        <v>0</v>
+      </c>
+      <c r="J202" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" s="4">
+        <v>2201</v>
+      </c>
+      <c r="B203" s="4">
+        <v>1201</v>
+      </c>
+      <c r="C203" s="4">
+        <v>1</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="4">
+        <v>1</v>
+      </c>
+      <c r="H203" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I203" s="4">
+        <v>0</v>
+      </c>
+      <c r="J203" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" s="4">
+        <v>2202</v>
+      </c>
+      <c r="B204" s="4">
+        <v>1202</v>
+      </c>
+      <c r="C204" s="4">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="4">
+        <v>1</v>
+      </c>
+      <c r="H204" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I204" s="4">
+        <v>0</v>
+      </c>
+      <c r="J204" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" s="4">
+        <v>2203</v>
+      </c>
+      <c r="B205" s="4">
+        <v>1203</v>
+      </c>
+      <c r="C205" s="4">
+        <v>1</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1</v>
+      </c>
+      <c r="H205" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I205" s="4">
+        <v>0</v>
+      </c>
+      <c r="J205" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" s="4">
+        <v>2204</v>
+      </c>
+      <c r="B206" s="4">
+        <v>1204</v>
+      </c>
+      <c r="C206" s="4">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="4">
+        <v>1</v>
+      </c>
+      <c r="H206" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I206" s="4">
+        <v>0</v>
+      </c>
+      <c r="J206" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K206" s="4">
         <v>0</v>
       </c>
     </row>

--- a/DBScript/Resources.xlsx
+++ b/DBScript/Resources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="233">
   <si>
     <t>resource_id</t>
   </si>
@@ -694,6 +694,27 @@
   </si>
   <si>
     <t>Activation Status</t>
+  </si>
+  <si>
+    <t>No of Buyers</t>
+  </si>
+  <si>
+    <t>No of Sellers</t>
+  </si>
+  <si>
+    <t>Toal Credit Amount</t>
+  </si>
+  <si>
+    <t>Available Balance Amount</t>
+  </si>
+  <si>
+    <t>Total Records Uploaded</t>
+  </si>
+  <si>
+    <t>Total Records Bought</t>
+  </si>
+  <si>
+    <t>Total Records Sold</t>
   </si>
 </sst>
 </file>
@@ -1064,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8290,6 +8311,321 @@
         <v>44622.528148148151</v>
       </c>
       <c r="K206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" s="4">
+        <v>2205</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1205</v>
+      </c>
+      <c r="C207" s="4">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="4">
+        <v>1</v>
+      </c>
+      <c r="H207" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I207" s="4">
+        <v>0</v>
+      </c>
+      <c r="J207" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" s="4">
+        <v>2206</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1206</v>
+      </c>
+      <c r="C208" s="4">
+        <v>1</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="4">
+        <v>1</v>
+      </c>
+      <c r="H208" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I208" s="4">
+        <v>0</v>
+      </c>
+      <c r="J208" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" s="4">
+        <v>2207</v>
+      </c>
+      <c r="B209" s="4">
+        <v>1207</v>
+      </c>
+      <c r="C209" s="4">
+        <v>1</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="4">
+        <v>1</v>
+      </c>
+      <c r="H209" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I209" s="4">
+        <v>0</v>
+      </c>
+      <c r="J209" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" s="4">
+        <v>2208</v>
+      </c>
+      <c r="B210" s="4">
+        <v>1208</v>
+      </c>
+      <c r="C210" s="4">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1</v>
+      </c>
+      <c r="H210" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0</v>
+      </c>
+      <c r="J210" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" s="4">
+        <v>2209</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1209</v>
+      </c>
+      <c r="C211" s="4">
+        <v>1</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1</v>
+      </c>
+      <c r="H211" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I211" s="4">
+        <v>0</v>
+      </c>
+      <c r="J211" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" s="4">
+        <v>2210</v>
+      </c>
+      <c r="B212" s="4">
+        <v>1210</v>
+      </c>
+      <c r="C212" s="4">
+        <v>1</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="4">
+        <v>1</v>
+      </c>
+      <c r="H212" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I212" s="4">
+        <v>0</v>
+      </c>
+      <c r="J212" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" s="4">
+        <v>2211</v>
+      </c>
+      <c r="B213" s="4">
+        <v>1211</v>
+      </c>
+      <c r="C213" s="4">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="4">
+        <v>1</v>
+      </c>
+      <c r="H213" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I213" s="4">
+        <v>0</v>
+      </c>
+      <c r="J213" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" s="4">
+        <v>2212</v>
+      </c>
+      <c r="B214" s="4">
+        <v>1212</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="4">
+        <v>1</v>
+      </c>
+      <c r="H214" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I214" s="4">
+        <v>0</v>
+      </c>
+      <c r="J214" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" s="4">
+        <v>2213</v>
+      </c>
+      <c r="B215" s="4">
+        <v>1213</v>
+      </c>
+      <c r="C215" s="4">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="4">
+        <v>1</v>
+      </c>
+      <c r="H215" s="5">
+        <v>44411.560208333336</v>
+      </c>
+      <c r="I215" s="4">
+        <v>0</v>
+      </c>
+      <c r="J215" s="5">
+        <v>44622.528148148151</v>
+      </c>
+      <c r="K215" s="4">
         <v>0</v>
       </c>
     </row>
